--- a/Environmental Variables_non.xlsx
+++ b/Environmental Variables_non.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_code\QGISPlugins\sampler_raster_values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75025A42-6982-4AA5-9200-CE239D69A025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A17F8E7-2A62-41B8-983A-03BDDC0D65DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E1A59FC1-799F-44AA-B57F-91B3B3FFCAC1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1A59FC1-799F-44AA-B57F-91B3B3FFCAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Environmental Variables" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,1062 @@
   </si>
   <si>
     <t>8Day_sst</t>
+  </si>
+  <si>
+    <t>19/02/16</t>
+  </si>
+  <si>
+    <t>16/06/16</t>
+  </si>
+  <si>
+    <t>17/06/16</t>
+  </si>
+  <si>
+    <t>30/06/16</t>
+  </si>
+  <si>
+    <t>03/07/16</t>
+  </si>
+  <si>
+    <t>10/07/16</t>
+  </si>
+  <si>
+    <t>14/07/16</t>
+  </si>
+  <si>
+    <t>16/07/16</t>
+  </si>
+  <si>
+    <t>22/07/16</t>
+  </si>
+  <si>
+    <t>13/09/16</t>
+  </si>
+  <si>
+    <t>15/01/17</t>
+  </si>
+  <si>
+    <t>26/01/17</t>
+  </si>
+  <si>
+    <t>27/01/17</t>
+  </si>
+  <si>
+    <t>11/03/17</t>
+  </si>
+  <si>
+    <t>25/03/17</t>
+  </si>
+  <si>
+    <t>26/03/17</t>
+  </si>
+  <si>
+    <t>01/04/17</t>
+  </si>
+  <si>
+    <t>13/05/17</t>
+  </si>
+  <si>
+    <t>07/06/17</t>
+  </si>
+  <si>
+    <t>11/06/17</t>
+  </si>
+  <si>
+    <t>12/06/17</t>
+  </si>
+  <si>
+    <t>17/06/17</t>
+  </si>
+  <si>
+    <t>09/07/17</t>
+  </si>
+  <si>
+    <t>21/07/17</t>
+  </si>
+  <si>
+    <t>22/07/17</t>
+  </si>
+  <si>
+    <t>19/08/17</t>
+  </si>
+  <si>
+    <t>16/09/17</t>
+  </si>
+  <si>
+    <t>17/09/17</t>
+  </si>
+  <si>
+    <t>22/09/17</t>
+  </si>
+  <si>
+    <t>25/09/17</t>
+  </si>
+  <si>
+    <t>26/09/17</t>
+  </si>
+  <si>
+    <t>30/09/17</t>
+  </si>
+  <si>
+    <t>07/10/17</t>
+  </si>
+  <si>
+    <t>09/10/17</t>
+  </si>
+  <si>
+    <t>01/12/17</t>
+  </si>
+  <si>
+    <t>10/12/17</t>
+  </si>
+  <si>
+    <t>17/12/17</t>
+  </si>
+  <si>
+    <t>23/12/17</t>
+  </si>
+  <si>
+    <t>13/01/18</t>
+  </si>
+  <si>
+    <t>15/01/18</t>
+  </si>
+  <si>
+    <t>17/01/18</t>
+  </si>
+  <si>
+    <t>18/01/18</t>
+  </si>
+  <si>
+    <t>01/03/18</t>
+  </si>
+  <si>
+    <t>10/03/18</t>
+  </si>
+  <si>
+    <t>24/03/18</t>
+  </si>
+  <si>
+    <t>21/04/18</t>
+  </si>
+  <si>
+    <t>28/04/18</t>
+  </si>
+  <si>
+    <t>07/05/18</t>
+  </si>
+  <si>
+    <t>10/05/18</t>
+  </si>
+  <si>
+    <t>12/06/18</t>
+  </si>
+  <si>
+    <t>21/06/18</t>
+  </si>
+  <si>
+    <t>23/06/18</t>
+  </si>
+  <si>
+    <t>24/06/18</t>
+  </si>
+  <si>
+    <t>25/06/18</t>
+  </si>
+  <si>
+    <t>29/06/18</t>
+  </si>
+  <si>
+    <t>02/07/18</t>
+  </si>
+  <si>
+    <t>03/07/18</t>
+  </si>
+  <si>
+    <t>06/07/18</t>
+  </si>
+  <si>
+    <t>07/07/18</t>
+  </si>
+  <si>
+    <t>15/07/18</t>
+  </si>
+  <si>
+    <t>18/07/18</t>
+  </si>
+  <si>
+    <t>19/07/18</t>
+  </si>
+  <si>
+    <t>20/07/18</t>
+  </si>
+  <si>
+    <t>21/07/18</t>
+  </si>
+  <si>
+    <t>23/07/18</t>
+  </si>
+  <si>
+    <t>24/07/18</t>
+  </si>
+  <si>
+    <t>27/07/18</t>
+  </si>
+  <si>
+    <t>28/07/18</t>
+  </si>
+  <si>
+    <t>29/07/18</t>
+  </si>
+  <si>
+    <t>05/08/18</t>
+  </si>
+  <si>
+    <t>14/08/18</t>
+  </si>
+  <si>
+    <t>21/08/18</t>
+  </si>
+  <si>
+    <t>22/08/18</t>
+  </si>
+  <si>
+    <t>24/08/18</t>
+  </si>
+  <si>
+    <t>18/09/18</t>
+  </si>
+  <si>
+    <t>21/09/18</t>
+  </si>
+  <si>
+    <t>23/09/18</t>
+  </si>
+  <si>
+    <t>30/09/18</t>
+  </si>
+  <si>
+    <t>03/11/18</t>
+  </si>
+  <si>
+    <t>01/12/18</t>
+  </si>
+  <si>
+    <t>02/12/18</t>
+  </si>
+  <si>
+    <t>10/12/18</t>
+  </si>
+  <si>
+    <t>11/12/18</t>
+  </si>
+  <si>
+    <t>15/12/18</t>
+  </si>
+  <si>
+    <t>16/12/18</t>
+  </si>
+  <si>
+    <t>21/12/18</t>
+  </si>
+  <si>
+    <t>07/01/19</t>
+  </si>
+  <si>
+    <t>09/01/19</t>
+  </si>
+  <si>
+    <t>12/01/19</t>
+  </si>
+  <si>
+    <t>19/01/19</t>
+  </si>
+  <si>
+    <t>20/01/19</t>
+  </si>
+  <si>
+    <t>24/01/19</t>
+  </si>
+  <si>
+    <t>26/01/19</t>
+  </si>
+  <si>
+    <t>01/02/19</t>
+  </si>
+  <si>
+    <t>02/02/19</t>
+  </si>
+  <si>
+    <t>08/02/19</t>
+  </si>
+  <si>
+    <t>09/02/19</t>
+  </si>
+  <si>
+    <t>17/02/19</t>
+  </si>
+  <si>
+    <t>23/02/19</t>
+  </si>
+  <si>
+    <t>24/02/19</t>
+  </si>
+  <si>
+    <t>05/03/19</t>
+  </si>
+  <si>
+    <t>07/03/19</t>
+  </si>
+  <si>
+    <t>19/04/19</t>
+  </si>
+  <si>
+    <t>20/04/19</t>
+  </si>
+  <si>
+    <t>21/04/19</t>
+  </si>
+  <si>
+    <t>28/04/19</t>
+  </si>
+  <si>
+    <t>11/05/19</t>
+  </si>
+  <si>
+    <t>23/05/19</t>
+  </si>
+  <si>
+    <t>27/05/19</t>
+  </si>
+  <si>
+    <t>31/05/19</t>
+  </si>
+  <si>
+    <t>01/06/19</t>
+  </si>
+  <si>
+    <t>07/06/19</t>
+  </si>
+  <si>
+    <t>08/06/19</t>
+  </si>
+  <si>
+    <t>09/06/19</t>
+  </si>
+  <si>
+    <t>14/06/19</t>
+  </si>
+  <si>
+    <t>15/06/19</t>
+  </si>
+  <si>
+    <t>16/06/19</t>
+  </si>
+  <si>
+    <t>18/06/19</t>
+  </si>
+  <si>
+    <t>19/06/19</t>
+  </si>
+  <si>
+    <t>22/06/19</t>
+  </si>
+  <si>
+    <t>24/06/19</t>
+  </si>
+  <si>
+    <t>27/06/19</t>
+  </si>
+  <si>
+    <t>28/06/19</t>
+  </si>
+  <si>
+    <t>29/06/19</t>
+  </si>
+  <si>
+    <t>30/06/19</t>
+  </si>
+  <si>
+    <t>03/07/19</t>
+  </si>
+  <si>
+    <t>08/07/19</t>
+  </si>
+  <si>
+    <t>09/07/19</t>
+  </si>
+  <si>
+    <t>11/07/19</t>
+  </si>
+  <si>
+    <t>12/07/19</t>
+  </si>
+  <si>
+    <t>14/07/19</t>
+  </si>
+  <si>
+    <t>15/07/19</t>
+  </si>
+  <si>
+    <t>20/07/19</t>
+  </si>
+  <si>
+    <t>24/08/19</t>
+  </si>
+  <si>
+    <t>19/09/19</t>
+  </si>
+  <si>
+    <t>18/10/19</t>
+  </si>
+  <si>
+    <t>03/11/19</t>
+  </si>
+  <si>
+    <t>02/01/20</t>
+  </si>
+  <si>
+    <t>09/01/20</t>
+  </si>
+  <si>
+    <t>10/01/20</t>
+  </si>
+  <si>
+    <t>11/01/20</t>
+  </si>
+  <si>
+    <t>16/01/20</t>
+  </si>
+  <si>
+    <t>17/01/20</t>
+  </si>
+  <si>
+    <t>25/01/20</t>
+  </si>
+  <si>
+    <t>26/01/20</t>
+  </si>
+  <si>
+    <t>29/01/20</t>
+  </si>
+  <si>
+    <t>30/01/20</t>
+  </si>
+  <si>
+    <t>31/01/20</t>
+  </si>
+  <si>
+    <t>14/02/20</t>
+  </si>
+  <si>
+    <t>15/02/20</t>
+  </si>
+  <si>
+    <t>18/02/20</t>
+  </si>
+  <si>
+    <t>23/02/20</t>
+  </si>
+  <si>
+    <t>25/02/20</t>
+  </si>
+  <si>
+    <t>05/03/20</t>
+  </si>
+  <si>
+    <t>06/03/20</t>
+  </si>
+  <si>
+    <t>07/03/20</t>
+  </si>
+  <si>
+    <t>15/03/20</t>
+  </si>
+  <si>
+    <t>19/03/20</t>
+  </si>
+  <si>
+    <t>01/05/20</t>
+  </si>
+  <si>
+    <t>11/05/20</t>
+  </si>
+  <si>
+    <t>12/05/20</t>
+  </si>
+  <si>
+    <t>01/06/20</t>
+  </si>
+  <si>
+    <t>07/06/20</t>
+  </si>
+  <si>
+    <t>08/06/20</t>
+  </si>
+  <si>
+    <t>10/06/20</t>
+  </si>
+  <si>
+    <t>12/06/20</t>
+  </si>
+  <si>
+    <t>20/06/20</t>
+  </si>
+  <si>
+    <t>22/06/20</t>
+  </si>
+  <si>
+    <t>23/06/20</t>
+  </si>
+  <si>
+    <t>24/06/20</t>
+  </si>
+  <si>
+    <t>30/06/20</t>
+  </si>
+  <si>
+    <t>01/07/20</t>
+  </si>
+  <si>
+    <t>05/07/20</t>
+  </si>
+  <si>
+    <t>09/07/20</t>
+  </si>
+  <si>
+    <t>13/07/20</t>
+  </si>
+  <si>
+    <t>17/07/20</t>
+  </si>
+  <si>
+    <t>19/07/20</t>
+  </si>
+  <si>
+    <t>20/07/20</t>
+  </si>
+  <si>
+    <t>22/07/20</t>
+  </si>
+  <si>
+    <t>24/07/20</t>
+  </si>
+  <si>
+    <t>25/07/20</t>
+  </si>
+  <si>
+    <t>07/08/20</t>
+  </si>
+  <si>
+    <t>08/08/20</t>
+  </si>
+  <si>
+    <t>09/08/20</t>
+  </si>
+  <si>
+    <t>10/08/20</t>
+  </si>
+  <si>
+    <t>31/08/20</t>
+  </si>
+  <si>
+    <t>27/09/20</t>
+  </si>
+  <si>
+    <t>30/09/20</t>
+  </si>
+  <si>
+    <t>28/10/20</t>
+  </si>
+  <si>
+    <t>29/10/20</t>
+  </si>
+  <si>
+    <t>13/11/20</t>
+  </si>
+  <si>
+    <t>27/11/20</t>
+  </si>
+  <si>
+    <t>13/12/20</t>
+  </si>
+  <si>
+    <t>14/12/20</t>
+  </si>
+  <si>
+    <t>21/12/20</t>
+  </si>
+  <si>
+    <t>28/12/20</t>
+  </si>
+  <si>
+    <t>30/12/20</t>
+  </si>
+  <si>
+    <t>31/12/20</t>
+  </si>
+  <si>
+    <t>21/01/21</t>
+  </si>
+  <si>
+    <t>30/01/21</t>
+  </si>
+  <si>
+    <t>01/02/21</t>
+  </si>
+  <si>
+    <t>07/03/21</t>
+  </si>
+  <si>
+    <t>28/03/21</t>
+  </si>
+  <si>
+    <t>09/04/21</t>
+  </si>
+  <si>
+    <t>10/04/21</t>
+  </si>
+  <si>
+    <t>23/04/21</t>
+  </si>
+  <si>
+    <t>25/04/21</t>
+  </si>
+  <si>
+    <t>26/04/21</t>
+  </si>
+  <si>
+    <t>02/05/21</t>
+  </si>
+  <si>
+    <t>03/05/21</t>
+  </si>
+  <si>
+    <t>04/05/21</t>
+  </si>
+  <si>
+    <t>11/05/21</t>
+  </si>
+  <si>
+    <t>12/05/21</t>
+  </si>
+  <si>
+    <t>15/05/21</t>
+  </si>
+  <si>
+    <t>17/05/21</t>
+  </si>
+  <si>
+    <t>18/05/21</t>
+  </si>
+  <si>
+    <t>20/05/21</t>
+  </si>
+  <si>
+    <t>22/05/21</t>
+  </si>
+  <si>
+    <t>23/05/21</t>
+  </si>
+  <si>
+    <t>26/05/21</t>
+  </si>
+  <si>
+    <t>27/05/21</t>
+  </si>
+  <si>
+    <t>28/05/21</t>
+  </si>
+  <si>
+    <t>30/05/21</t>
+  </si>
+  <si>
+    <t>02/06/21</t>
+  </si>
+  <si>
+    <t>03/06/21</t>
+  </si>
+  <si>
+    <t>04/06/21</t>
+  </si>
+  <si>
+    <t>05/06/21</t>
+  </si>
+  <si>
+    <t>06/06/21</t>
+  </si>
+  <si>
+    <t>08/06/21</t>
+  </si>
+  <si>
+    <t>09/06/21</t>
+  </si>
+  <si>
+    <t>10/06/21</t>
+  </si>
+  <si>
+    <t>12/06/21</t>
+  </si>
+  <si>
+    <t>13/06/21</t>
+  </si>
+  <si>
+    <t>15/06/21</t>
+  </si>
+  <si>
+    <t>21/06/21</t>
+  </si>
+  <si>
+    <t>22/06/21</t>
+  </si>
+  <si>
+    <t>24/06/21</t>
+  </si>
+  <si>
+    <t>25/06/21</t>
+  </si>
+  <si>
+    <t>26/06/21</t>
+  </si>
+  <si>
+    <t>27/06/21</t>
+  </si>
+  <si>
+    <t>02/07/21</t>
+  </si>
+  <si>
+    <t>03/07/21</t>
+  </si>
+  <si>
+    <t>04/07/21</t>
+  </si>
+  <si>
+    <t>05/07/21</t>
+  </si>
+  <si>
+    <t>06/07/21</t>
+  </si>
+  <si>
+    <t>07/07/21</t>
+  </si>
+  <si>
+    <t>09/07/21</t>
+  </si>
+  <si>
+    <t>10/07/21</t>
+  </si>
+  <si>
+    <t>11/07/21</t>
+  </si>
+  <si>
+    <t>12/07/21</t>
+  </si>
+  <si>
+    <t>13/07/21</t>
+  </si>
+  <si>
+    <t>14/07/21</t>
+  </si>
+  <si>
+    <t>15/07/21</t>
+  </si>
+  <si>
+    <t>22/07/21</t>
+  </si>
+  <si>
+    <t>24/07/21</t>
+  </si>
+  <si>
+    <t>27/07/21</t>
+  </si>
+  <si>
+    <t>01/08/21</t>
+  </si>
+  <si>
+    <t>02/08/21</t>
+  </si>
+  <si>
+    <t>07/08/21</t>
+  </si>
+  <si>
+    <t>10/08/21</t>
+  </si>
+  <si>
+    <t>16/08/21</t>
+  </si>
+  <si>
+    <t>22/08/21</t>
+  </si>
+  <si>
+    <t>30/08/21</t>
+  </si>
+  <si>
+    <t>14/09/21</t>
+  </si>
+  <si>
+    <t>21/09/21</t>
+  </si>
+  <si>
+    <t>29/09/21</t>
+  </si>
+  <si>
+    <t>02/10/21</t>
+  </si>
+  <si>
+    <t>06/11/21</t>
+  </si>
+  <si>
+    <t>07/11/21</t>
+  </si>
+  <si>
+    <t>20/11/21</t>
+  </si>
+  <si>
+    <t>21/11/21</t>
+  </si>
+  <si>
+    <t>25/11/21</t>
+  </si>
+  <si>
+    <t>28/11/21</t>
+  </si>
+  <si>
+    <t>11/12/21</t>
+  </si>
+  <si>
+    <t>14/12/21</t>
+  </si>
+  <si>
+    <t>11/01/22</t>
+  </si>
+  <si>
+    <t>15/01/22</t>
+  </si>
+  <si>
+    <t>16/02/22</t>
+  </si>
+  <si>
+    <t>04/04/22</t>
+  </si>
+  <si>
+    <t>21/04/22</t>
+  </si>
+  <si>
+    <t>10/05/22</t>
+  </si>
+  <si>
+    <t>11/05/22</t>
+  </si>
+  <si>
+    <t>26/05/22</t>
+  </si>
+  <si>
+    <t>27/05/22</t>
+  </si>
+  <si>
+    <t>28/05/22</t>
+  </si>
+  <si>
+    <t>29/05/22</t>
+  </si>
+  <si>
+    <t>05/06/22</t>
+  </si>
+  <si>
+    <t>06/06/22</t>
+  </si>
+  <si>
+    <t>07/06/22</t>
+  </si>
+  <si>
+    <t>08/06/22</t>
+  </si>
+  <si>
+    <t>09/06/22</t>
+  </si>
+  <si>
+    <t>10/06/22</t>
+  </si>
+  <si>
+    <t>14/06/22</t>
+  </si>
+  <si>
+    <t>16/06/22</t>
+  </si>
+  <si>
+    <t>17/06/22</t>
+  </si>
+  <si>
+    <t>22/06/22</t>
+  </si>
+  <si>
+    <t>23/06/22</t>
+  </si>
+  <si>
+    <t>24/06/22</t>
+  </si>
+  <si>
+    <t>28/06/22</t>
+  </si>
+  <si>
+    <t>29/06/22</t>
+  </si>
+  <si>
+    <t>01/07/22</t>
+  </si>
+  <si>
+    <t>02/07/22</t>
+  </si>
+  <si>
+    <t>03/07/22</t>
+  </si>
+  <si>
+    <t>04/07/22</t>
+  </si>
+  <si>
+    <t>05/07/22</t>
+  </si>
+  <si>
+    <t>06/07/22</t>
+  </si>
+  <si>
+    <t>07/07/22</t>
+  </si>
+  <si>
+    <t>09/07/22</t>
+  </si>
+  <si>
+    <t>10/07/22</t>
+  </si>
+  <si>
+    <t>11/07/22</t>
+  </si>
+  <si>
+    <t>12/07/22</t>
+  </si>
+  <si>
+    <t>15/07/22</t>
+  </si>
+  <si>
+    <t>16/07/22</t>
+  </si>
+  <si>
+    <t>17/07/22</t>
+  </si>
+  <si>
+    <t>19/07/22</t>
+  </si>
+  <si>
+    <t>20/07/22</t>
+  </si>
+  <si>
+    <t>21/07/22</t>
+  </si>
+  <si>
+    <t>22/07/22</t>
+  </si>
+  <si>
+    <t>23/07/22</t>
+  </si>
+  <si>
+    <t>24/07/22</t>
+  </si>
+  <si>
+    <t>25/07/22</t>
+  </si>
+  <si>
+    <t>26/07/22</t>
+  </si>
+  <si>
+    <t>28/07/22</t>
+  </si>
+  <si>
+    <t>31/07/22</t>
+  </si>
+  <si>
+    <t>04/08/22</t>
+  </si>
+  <si>
+    <t>05/08/22</t>
+  </si>
+  <si>
+    <t>06/08/22</t>
+  </si>
+  <si>
+    <t>08/08/22</t>
+  </si>
+  <si>
+    <t>15/08/22</t>
+  </si>
+  <si>
+    <t>27/08/22</t>
+  </si>
+  <si>
+    <t>09/09/22</t>
+  </si>
+  <si>
+    <t>18/09/22</t>
+  </si>
+  <si>
+    <t>08/10/22</t>
+  </si>
+  <si>
+    <t>09/10/22</t>
+  </si>
+  <si>
+    <t>12/10/22</t>
+  </si>
+  <si>
+    <t>24/10/22</t>
+  </si>
+  <si>
+    <t>10/11/22</t>
+  </si>
+  <si>
+    <t>17/11/22</t>
+  </si>
+  <si>
+    <t>28/12/22</t>
+  </si>
+  <si>
+    <t>04/01/23</t>
+  </si>
+  <si>
+    <t>11/01/23</t>
+  </si>
+  <si>
+    <t>12/01/23</t>
+  </si>
+  <si>
+    <t>17/01/23</t>
+  </si>
+  <si>
+    <t>20/01/23</t>
+  </si>
+  <si>
+    <t>22/01/23</t>
+  </si>
+  <si>
+    <t>26/01/23</t>
+  </si>
+  <si>
+    <t>11/02/23</t>
+  </si>
+  <si>
+    <t>12/04/23</t>
+  </si>
+  <si>
+    <t>14/04/23</t>
+  </si>
+  <si>
+    <t>02/05/23</t>
+  </si>
+  <si>
+    <t>04/05/23</t>
+  </si>
+  <si>
+    <t>19/05/23</t>
   </si>
 </sst>
 </file>
@@ -114,7 +1170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -434,21 +1490,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44433F94-6954-4554-AA38-C763BDC78604}">
   <dimension ref="A1:I353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,12 +1535,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>42419</v>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
         <v>-23.99305</v>
@@ -491,12 +1549,12 @@
         <v>-45.673716666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>42537</v>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3">
         <v>-23.816666666666666</v>
@@ -505,12 +1563,12 @@
         <v>-45.383333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>42538</v>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C4">
         <v>-23.755216666666666</v>
@@ -519,12 +1577,12 @@
         <v>-45.175766666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>42551</v>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C5">
         <v>-23.792966666666668</v>
@@ -533,12 +1591,12 @@
         <v>-45.736400000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>42554</v>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C6">
         <v>-24.0305</v>
@@ -547,12 +1605,12 @@
         <v>-45.560833333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>42561</v>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C7">
         <v>-23.729299999999999</v>
@@ -561,12 +1619,12 @@
         <v>-45.239216666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>42565</v>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>-23.836183333333334</v>
@@ -575,12 +1633,12 @@
         <v>-45.220233333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>42567</v>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C9">
         <v>-23.796700000000001</v>
@@ -589,12 +1647,12 @@
         <v>-45.770499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>42573</v>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C10">
         <v>-23.862233333333332</v>
@@ -603,12 +1661,12 @@
         <v>-45.245083333333334</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>42626</v>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C11">
         <v>-24.091833333333334</v>
@@ -617,12 +1675,12 @@
         <v>-45.67966666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>42750</v>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C12">
         <v>-23.847349999999999</v>
@@ -631,12 +1689,12 @@
         <v>-45.219033333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>42761</v>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C13">
         <v>-23.750816666666665</v>
@@ -645,12 +1703,12 @@
         <v>-45.246283333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>42762</v>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14">
         <v>-23.734500000000001</v>
@@ -659,12 +1717,12 @@
         <v>-45.267333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>42805</v>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15">
         <v>-23.753216666666667</v>
@@ -673,12 +1731,12 @@
         <v>-45.003450000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>42819</v>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C16">
         <v>-23.776666666666667</v>
@@ -687,12 +1745,12 @@
         <v>-45.193683333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>42820</v>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C17">
         <v>-23.718150000000001</v>
@@ -701,12 +1759,12 @@
         <v>-45.30213333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>42826</v>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C18">
         <v>-23.771316666666667</v>
@@ -715,12 +1773,12 @@
         <v>-45.225099999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>42868</v>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C19">
         <v>-23.85895</v>
@@ -729,12 +1787,12 @@
         <v>-45.756216666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
-        <v>42893</v>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C20">
         <v>-23.899850000000001</v>
@@ -743,12 +1801,12 @@
         <v>-45.218883333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
-        <v>42897</v>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C21">
         <v>-24.105216666666667</v>
@@ -757,12 +1815,12 @@
         <v>-45.530333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
-        <v>42898</v>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C22">
         <v>-23.880199999999999</v>
@@ -771,12 +1829,12 @@
         <v>-45.479599999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
-        <v>42903</v>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C23">
         <v>-23.816816666666668</v>
@@ -785,12 +1843,12 @@
         <v>-45.157866666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
-        <v>42925</v>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C24">
         <v>-23.88475</v>
@@ -799,12 +1857,12 @@
         <v>-45.481966666666665</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
-        <v>42937</v>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C25">
         <v>-23.942116666666667</v>
@@ -813,12 +1871,12 @@
         <v>-45.425550000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
-        <v>42938</v>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C26">
         <v>-23.83615</v>
@@ -827,12 +1885,12 @@
         <v>-45.435033333333337</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
-        <v>42966</v>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C27">
         <v>-23.525449999999999</v>
@@ -841,12 +1899,12 @@
         <v>-45.086483333333334</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
-        <v>42994</v>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C28">
         <v>-23.926300000000001</v>
@@ -855,12 +1913,12 @@
         <v>-45.770816666666668</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
-        <v>42995</v>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C29">
         <v>-23.741816666666665</v>
@@ -869,12 +1927,12 @@
         <v>-45.25266666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
-        <v>43000</v>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C30">
         <v>-23.729283333333335</v>
@@ -883,12 +1941,12 @@
         <v>-45.287516666666669</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
-        <v>43003</v>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C31">
         <v>-23.932766666666666</v>
@@ -897,12 +1955,12 @@
         <v>-45.452666666666666</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
-        <v>43004</v>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C32">
         <v>-23.932766666666666</v>
@@ -911,12 +1969,12 @@
         <v>-45.452666666666666</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
-        <v>43008</v>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C33">
         <v>-23.845483333333334</v>
@@ -925,12 +1983,12 @@
         <v>-45.414349999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
-        <v>43015</v>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C34">
         <v>-23.713566666666665</v>
@@ -939,12 +1997,12 @@
         <v>-45.316800000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
-        <v>43017</v>
+      <c r="B35" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C35">
         <v>-23.771349999999998</v>
@@ -953,12 +2011,12 @@
         <v>-45.229383333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
-        <v>43070</v>
+      <c r="B36" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C36">
         <v>-23.905716666666667</v>
@@ -967,12 +2025,12 @@
         <v>-45.215966666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
-        <v>43079</v>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C37">
         <v>-23.839616666666668</v>
@@ -981,12 +2039,12 @@
         <v>-45.737133333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
-        <v>43086</v>
+      <c r="B38" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C38">
         <v>-23.756083333333333</v>
@@ -995,12 +2053,12 @@
         <v>-45.242016666666665</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
-        <v>43092</v>
+      <c r="B39" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C39">
         <v>-23.79815</v>
@@ -1009,12 +2067,12 @@
         <v>-45.642449999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
-        <v>43113</v>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C40">
         <v>-23.780116666666668</v>
@@ -1023,12 +2081,12 @@
         <v>-45.207883333333335</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
-        <v>43115</v>
+      <c r="B41" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C41">
         <v>-23.933933333333332</v>
@@ -1037,12 +2095,12 @@
         <v>-45.378666666666668</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
-        <v>43117</v>
+      <c r="B42" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C42">
         <v>-23.827566666666666</v>
@@ -1051,12 +2109,12 @@
         <v>-45.222966666666665</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
-        <v>43118</v>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C43">
         <v>-23.716866666666668</v>
@@ -1065,12 +2123,12 @@
         <v>-45.341383333333333</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
-        <v>43160</v>
+      <c r="B44" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C44">
         <v>-23.814216666666667</v>
@@ -1079,12 +2137,12 @@
         <v>-45.641216666666665</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
-        <v>43169</v>
+      <c r="B45" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C45">
         <v>-23.962166666666668</v>
@@ -1093,12 +2151,12 @@
         <v>-45.505233333333337</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
-        <v>43183</v>
+      <c r="B46" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C46">
         <v>-23.754000000000001</v>
@@ -1107,12 +2165,12 @@
         <v>-45.245466666666665</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
-        <v>43211</v>
+      <c r="B47" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C47">
         <v>-23.8491</v>
@@ -1121,12 +2179,12 @@
         <v>-45.498933333333333</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
-        <v>43218</v>
+      <c r="B48" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C48">
         <v>-23.785983333333334</v>
@@ -1135,12 +2193,12 @@
         <v>-45.73428333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
-        <v>43227</v>
+      <c r="B49" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C49">
         <v>-23.806666666666665</v>
@@ -1149,12 +2207,12 @@
         <v>-45.195999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
-        <v>43230</v>
+      <c r="B50" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C50">
         <v>-23.898816666666665</v>
@@ -1163,12 +2221,12 @@
         <v>-45.50953333333333</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
-        <v>43263</v>
+      <c r="B51" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C51">
         <v>-23.932833333333335</v>
@@ -1177,12 +2235,12 @@
         <v>-45.372666666666667</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
-        <v>43272</v>
+      <c r="B52" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C52">
         <v>-23.862916666666667</v>
@@ -1191,12 +2249,12 @@
         <v>-45.548716666666664</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
-        <v>43274</v>
+      <c r="B53" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C53">
         <v>-23.917933333333334</v>
@@ -1205,12 +2263,12 @@
         <v>-45.465616666666669</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
-        <v>43275</v>
+      <c r="B54" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C54">
         <v>-23.9437</v>
@@ -1219,12 +2277,12 @@
         <v>-45.496616666666668</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
-        <v>43276</v>
+      <c r="B55" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C55">
         <v>-23.862516666666668</v>
@@ -1233,12 +2291,12 @@
         <v>-45.438433333333336</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
-        <v>43280</v>
+      <c r="B56" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C56">
         <v>-23.848333333333333</v>
@@ -1247,12 +2305,12 @@
         <v>-45.439183333333332</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
-        <v>43283</v>
+      <c r="B57" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C57">
         <v>-23.85575</v>
@@ -1261,12 +2319,12 @@
         <v>-45.462699999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
-        <v>43284</v>
+      <c r="B58" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C58">
         <v>-23.911033333333332</v>
@@ -1275,12 +2333,12 @@
         <v>-45.468800000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
-        <v>43287</v>
+      <c r="B59" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C59">
         <v>-23.832133333333335</v>
@@ -1289,12 +2347,12 @@
         <v>-45.213149999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
-        <v>43288</v>
+      <c r="B60" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C60">
         <v>-23.837366666666668</v>
@@ -1303,12 +2361,12 @@
         <v>-45.114183333333337</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
-        <v>43296</v>
+      <c r="B61" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C61">
         <v>-23.881733333333333</v>
@@ -1317,12 +2375,12 @@
         <v>-45.465883333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
-        <v>43299</v>
+      <c r="B62" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C62">
         <v>-23.9819</v>
@@ -1331,12 +2389,12 @@
         <v>-45.373083333333334</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
-        <v>43300</v>
+      <c r="B63" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C63">
         <v>-23.870583333333332</v>
@@ -1345,12 +2403,12 @@
         <v>-45.179066666666664</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
-        <v>43301</v>
+      <c r="B64" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C64">
         <v>-23.997</v>
@@ -1359,12 +2417,12 @@
         <v>-45.372050000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
-        <v>43302</v>
+      <c r="B65" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C65">
         <v>-24.088049999999999</v>
@@ -1373,12 +2431,12 @@
         <v>-45.684600000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="2">
-        <v>43304</v>
+      <c r="B66" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C66">
         <v>-23.963133333333332</v>
@@ -1387,12 +2445,12 @@
         <v>-45.402149999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
-        <v>43305</v>
+      <c r="B67" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C67">
         <v>-23.871583333333334</v>
@@ -1401,12 +2459,12 @@
         <v>-45.463966666666664</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
-        <v>43308</v>
+      <c r="B68" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C68">
         <v>-23.947433333333333</v>
@@ -1415,12 +2473,12 @@
         <v>-45.426033333333336</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
-        <v>43309</v>
+      <c r="B69" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C69">
         <v>-23.950466666666667</v>
@@ -1429,12 +2487,12 @@
         <v>-45.303933333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
-        <v>43310</v>
+      <c r="B70" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C70">
         <v>-23.999133333333333</v>
@@ -1443,12 +2501,12 @@
         <v>-45.263566666666669</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
-        <v>43317</v>
+      <c r="B71" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C71">
         <v>-24.016100000000002</v>
@@ -1457,12 +2515,12 @@
         <v>-45.328000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
-        <v>43326</v>
+      <c r="B72" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C72">
         <v>-23.835533333333334</v>
@@ -1471,12 +2529,12 @@
         <v>-45.408749999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
-        <v>43333</v>
+      <c r="B73" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C73">
         <v>-23.814466666666668</v>
@@ -1485,12 +2543,12 @@
         <v>-45.226649999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
-        <v>43334</v>
+      <c r="B74" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C74">
         <v>-23.977699999999999</v>
@@ -1499,12 +2557,12 @@
         <v>-45.208150000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
-        <v>43336</v>
+      <c r="B75" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C75">
         <v>-23.955816666666667</v>
@@ -1513,12 +2571,12 @@
         <v>-45.378933333333336</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
-        <v>43361</v>
+      <c r="B76" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C76">
         <v>-23.847016666666665</v>
@@ -1527,12 +2585,12 @@
         <v>-45.423783333333333</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
-        <v>43364</v>
+      <c r="B77" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C77">
         <v>-23.770883333333334</v>
@@ -1541,12 +2599,12 @@
         <v>-45.366083333333336</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="2">
-        <v>43366</v>
+      <c r="B78" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C78">
         <v>-23.950299999999999</v>
@@ -1555,12 +2613,12 @@
         <v>-45.429816666666667</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
-        <v>43373</v>
+      <c r="B79" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C79">
         <v>-23.738600000000002</v>
@@ -1569,12 +2627,12 @@
         <v>-45.10413333333333</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="2">
-        <v>43407</v>
+      <c r="B80" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C80">
         <v>-23.950299999999999</v>
@@ -1583,12 +2641,12 @@
         <v>-45.429816666666667</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
-        <v>43435</v>
+      <c r="B81" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C81">
         <v>-23.947583333333334</v>
@@ -1597,12 +2655,12 @@
         <v>-45.312849999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
-        <v>43436</v>
+      <c r="B82" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C82">
         <v>-23.725933333333334</v>
@@ -1611,12 +2669,12 @@
         <v>-45.259083333333336</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="2">
-        <v>43444</v>
+      <c r="B83" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C83">
         <v>-23.842449999999999</v>
@@ -1625,12 +2683,12 @@
         <v>-45.267699999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="2">
-        <v>43445</v>
+      <c r="B84" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C84">
         <v>-23.838850000000001</v>
@@ -1639,12 +2697,12 @@
         <v>-45.518000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="2">
-        <v>43449</v>
+      <c r="B85" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C85">
         <v>-23.827116666666665</v>
@@ -1653,12 +2711,12 @@
         <v>-45.591149999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
-        <v>43450</v>
+      <c r="B86" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C86">
         <v>-23.928233333333335</v>
@@ -1667,12 +2725,12 @@
         <v>-45.478216666666668</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="2">
-        <v>43455</v>
+      <c r="B87" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C87">
         <v>-23.884616666666666</v>
@@ -1681,12 +2739,12 @@
         <v>-45.218833333333336</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="2">
-        <v>43472</v>
+      <c r="B88" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C88">
         <v>-23.8157</v>
@@ -1695,12 +2753,12 @@
         <v>-45.156916666666667</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
-        <v>43474</v>
+      <c r="B89" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C89">
         <v>-23.861149999999999</v>
@@ -1709,12 +2767,12 @@
         <v>-45.513249999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
-        <v>43477</v>
+      <c r="B90" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C90">
         <v>-23.786549999999998</v>
@@ -1723,12 +2781,12 @@
         <v>-45.196233333333332</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="2">
-        <v>43484</v>
+      <c r="B91" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C91">
         <v>-23.905166666666666</v>
@@ -1737,12 +2795,12 @@
         <v>-45.20706666666667</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="2">
-        <v>43485</v>
+      <c r="B92" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C92">
         <v>-23.670433333333332</v>
@@ -1751,12 +2809,12 @@
         <v>-45.226883333333333</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="2">
-        <v>43489</v>
+      <c r="B93" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C93">
         <v>-23.684733333333334</v>
@@ -1765,12 +2823,12 @@
         <v>-45.281199999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="2">
-        <v>43491</v>
+      <c r="B94" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C94">
         <v>-23.808766666666667</v>
@@ -1779,12 +2837,12 @@
         <v>-45.109766666666665</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="2">
-        <v>43497</v>
+      <c r="B95" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C95">
         <v>-23.839616666666668</v>
@@ -1793,12 +2851,12 @@
         <v>-45.209600000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="2">
-        <v>43498</v>
+      <c r="B96" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C96">
         <v>-23.901</v>
@@ -1807,12 +2865,12 @@
         <v>-45.190933333333334</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="2">
-        <v>43504</v>
+      <c r="B97" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C97">
         <v>-23.808766666666667</v>
@@ -1821,12 +2879,12 @@
         <v>-45.109766666666665</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="2">
-        <v>43505</v>
+      <c r="B98" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C98">
         <v>-23.876383333333333</v>
@@ -1835,12 +2893,12 @@
         <v>-44.75</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
-        <v>43513</v>
+      <c r="B99" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C99">
         <v>-23.703833333333332</v>
@@ -1849,12 +2907,12 @@
         <v>-45.321416666666664</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="2">
-        <v>43519</v>
+      <c r="B100" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C100">
         <v>-23.913166666666665</v>
@@ -1863,12 +2921,12 @@
         <v>-45.468249999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="2">
-        <v>43520</v>
+      <c r="B101" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C101">
         <v>-23.715983333333334</v>
@@ -1877,12 +2935,12 @@
         <v>-45.289900000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="2">
-        <v>43529</v>
+      <c r="B102" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C102">
         <v>-23.738383333333335</v>
@@ -1891,12 +2949,12 @@
         <v>-45.257449999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="2">
-        <v>43531</v>
+      <c r="B103" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C103">
         <v>-23.645833333333332</v>
@@ -1905,12 +2963,12 @@
         <v>-45.306716666666667</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="2">
-        <v>43574</v>
+      <c r="B104" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C104">
         <v>-23.735283333333335</v>
@@ -1919,12 +2977,12 @@
         <v>-45.238583333333331</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="2">
-        <v>43575</v>
+      <c r="B105" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C105">
         <v>-23.86975</v>
@@ -1933,12 +2991,12 @@
         <v>-45.174766666666663</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="2">
-        <v>43576</v>
+      <c r="B106" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C106">
         <v>-23.902016666666668</v>
@@ -1947,12 +3005,12 @@
         <v>-45.198833333333333</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="2">
-        <v>43583</v>
+      <c r="B107" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C107">
         <v>-23.658549999999998</v>
@@ -1961,12 +3019,12 @@
         <v>-45.27858333333333</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="2">
-        <v>43596</v>
+      <c r="B108" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C108">
         <v>-23.643383333333333</v>
@@ -1975,12 +3033,12 @@
         <v>-45.275666666666666</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="2">
-        <v>43608</v>
+      <c r="B109" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C109">
         <v>-23.727016666666668</v>
@@ -1989,12 +3047,12 @@
         <v>-45.075400000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="2">
-        <v>43612</v>
+      <c r="B110" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C110">
         <v>-23.977250000000002</v>
@@ -2003,12 +3061,12 @@
         <v>-45.191116666666666</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="2">
-        <v>43616</v>
+      <c r="B111" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C111">
         <v>-23.87585</v>
@@ -2017,12 +3075,12 @@
         <v>-45.485883333333334</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="2">
-        <v>43617</v>
+      <c r="B112" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C112">
         <v>-23.831099999999999</v>
@@ -2031,12 +3089,12 @@
         <v>-45.397316666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="2">
-        <v>43623</v>
+      <c r="B113" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C113">
         <v>-23.916583333333332</v>
@@ -2045,12 +3103,12 @@
         <v>-45.478916666666663</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="2">
-        <v>43624</v>
+      <c r="B114" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C114">
         <v>-23.950900000000001</v>
@@ -2059,12 +3117,12 @@
         <v>-45.360733333333336</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="2">
-        <v>43625</v>
+      <c r="B115" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C115">
         <v>-23.855350000000001</v>
@@ -2073,12 +3131,12 @@
         <v>-45.433783333333331</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="2">
-        <v>43630</v>
+      <c r="B116" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C116">
         <v>-23.904033333333334</v>
@@ -2087,12 +3145,12 @@
         <v>-45.522399999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="2">
-        <v>43631</v>
+      <c r="B117" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C117">
         <v>-23.959533333333333</v>
@@ -2101,12 +3159,12 @@
         <v>-45.387133333333331</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="2">
-        <v>43632</v>
+      <c r="B118" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C118">
         <v>-23.847883333333332</v>
@@ -2115,12 +3173,12 @@
         <v>-45.575000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="2">
-        <v>43634</v>
+      <c r="B119" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C119">
         <v>-23.939150000000001</v>
@@ -2129,12 +3187,12 @@
         <v>-45.448900000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="2">
-        <v>43635</v>
+      <c r="B120" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C120">
         <v>-23.893049999999999</v>
@@ -2143,12 +3201,12 @@
         <v>-45.473300000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="2">
-        <v>43638</v>
+      <c r="B121" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C121">
         <v>-23.783249999999999</v>
@@ -2157,12 +3215,12 @@
         <v>-45.369050000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="2">
-        <v>43640</v>
+      <c r="B122" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C122">
         <v>-23.880883333333333</v>
@@ -2171,12 +3229,12 @@
         <v>-45.55446666666667</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="2">
-        <v>43643</v>
+      <c r="B123" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C123">
         <v>-23.917616666666667</v>
@@ -2185,12 +3243,12 @@
         <v>-45.546716666666669</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="2">
-        <v>43644</v>
+      <c r="B124" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C124">
         <v>-23.922816666666666</v>
@@ -2199,12 +3257,12 @@
         <v>-45.472349999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="2">
-        <v>43645</v>
+      <c r="B125" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C125">
         <v>-23.926749999999998</v>
@@ -2213,12 +3271,12 @@
         <v>-45.291316666666667</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="2">
-        <v>43646</v>
+      <c r="B126" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C126">
         <v>-23.892033333333334</v>
@@ -2227,12 +3285,12 @@
         <v>-45.476399999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="2">
-        <v>43649</v>
+      <c r="B127" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C127">
         <v>-23.844516666666667</v>
@@ -2241,12 +3299,12 @@
         <v>-45.441899999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="2">
-        <v>43654</v>
+      <c r="B128" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C128">
         <v>-23.750516666666666</v>
@@ -2255,12 +3313,12 @@
         <v>-45.244549999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="2">
-        <v>43655</v>
+      <c r="B129" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C129">
         <v>-23.7819</v>
@@ -2269,12 +3327,12 @@
         <v>-45.208733333333335</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="2">
-        <v>43657</v>
+      <c r="B130" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C130">
         <v>-23.945433333333334</v>
@@ -2283,12 +3341,12 @@
         <v>-45.439433333333334</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="2">
-        <v>43658</v>
+      <c r="B131" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C131">
         <v>-23.940966666666668</v>
@@ -2297,12 +3355,12 @@
         <v>-45.382283333333334</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="2">
-        <v>43660</v>
+      <c r="B132" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C132">
         <v>-23.938483333333334</v>
@@ -2311,12 +3369,12 @@
         <v>-45.455599999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" s="2">
-        <v>43661</v>
+      <c r="B133" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C133">
         <v>-23.936516666666666</v>
@@ -2325,12 +3383,12 @@
         <v>-45.47593333333333</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="2">
-        <v>43666</v>
+      <c r="B134" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C134">
         <v>-23.947283333333335</v>
@@ -2339,12 +3397,12 @@
         <v>-45.445549999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="2">
-        <v>43701</v>
+      <c r="B135" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C135">
         <v>-24.389733333333332</v>
@@ -2353,12 +3411,12 @@
         <v>-44.954500000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="2">
-        <v>43727</v>
+      <c r="B136" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C136">
         <v>-23.846266666666665</v>
@@ -2367,12 +3425,12 @@
         <v>-45.426683333333337</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="2">
-        <v>43756</v>
+      <c r="B137" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C137">
         <v>-23.812650000000001</v>
@@ -2381,12 +3439,12 @@
         <v>-45.374699999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="2">
-        <v>43772</v>
+      <c r="B138" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C138">
         <v>-23.946283333333334</v>
@@ -2395,12 +3453,12 @@
         <v>-45.426699999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="2">
-        <v>43832</v>
+      <c r="B139" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C139">
         <v>-23.790166666666668</v>
@@ -2409,12 +3467,12 @@
         <v>-45.648116666666667</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="2">
-        <v>43839</v>
+      <c r="B140" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C140">
         <v>-23.895516666666666</v>
@@ -2423,12 +3481,12 @@
         <v>-45.215183333333336</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="2">
-        <v>43840</v>
+      <c r="B141" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C141">
         <v>-23.849599999999999</v>
@@ -2437,12 +3495,12 @@
         <v>-45.213966666666664</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="2">
-        <v>43841</v>
+      <c r="B142" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C142">
         <v>-23.859733333333335</v>
@@ -2451,12 +3509,12 @@
         <v>-45.21006666666667</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="2">
-        <v>43846</v>
+      <c r="B143" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C143">
         <v>-23.786666666666665</v>
@@ -2465,12 +3523,12 @@
         <v>-45.208783333333336</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="2">
-        <v>43847</v>
+      <c r="B144" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C144">
         <v>-23.951733333333333</v>
@@ -2479,12 +3537,12 @@
         <v>-45.425350000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="2">
-        <v>43855</v>
+      <c r="B145" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C145">
         <v>-23.723716666666668</v>
@@ -2493,12 +3551,12 @@
         <v>-45.280766666666665</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="2">
-        <v>43856</v>
+      <c r="B146" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C146">
         <v>-23.84525</v>
@@ -2507,12 +3565,12 @@
         <v>-45.212283333333332</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="2">
-        <v>43859</v>
+      <c r="B147" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C147">
         <v>-23.72015</v>
@@ -2521,12 +3579,12 @@
         <v>-45.325499999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="2">
-        <v>43860</v>
+      <c r="B148" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C148">
         <v>-23.839733333333335</v>
@@ -2535,12 +3593,12 @@
         <v>-45.213349999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="2">
-        <v>43861</v>
+      <c r="B149" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C149">
         <v>-24.093366666666668</v>
@@ -2549,12 +3607,12 @@
         <v>-45.701433333333334</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="2">
-        <v>43875</v>
+      <c r="B150" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C150">
         <v>-23.752133333333333</v>
@@ -2563,12 +3621,12 @@
         <v>-45.255633333333336</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="2">
-        <v>43876</v>
+      <c r="B151" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C151">
         <v>-23.910599999999999</v>
@@ -2577,12 +3635,12 @@
         <v>-45.225450000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" s="2">
-        <v>43879</v>
+      <c r="B152" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C152">
         <v>-23.931366666666666</v>
@@ -2591,12 +3649,12 @@
         <v>-45.348166666666664</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153" s="2">
-        <v>43884</v>
+      <c r="B153" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C153">
         <v>-23.625116666666667</v>
@@ -2605,12 +3663,12 @@
         <v>-45.27355</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" s="2">
-        <v>43886</v>
+      <c r="B154" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="C154">
         <v>-23.853383333333333</v>
@@ -2619,12 +3677,12 @@
         <v>-45.22625</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155" s="2">
-        <v>43895</v>
+      <c r="B155" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C155">
         <v>-23.726816666666668</v>
@@ -2633,12 +3691,12 @@
         <v>-45.283166666666666</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156" s="2">
-        <v>43896</v>
+      <c r="B156" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C156">
         <v>-23.732150000000001</v>
@@ -2647,12 +3705,12 @@
         <v>-45.289050000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157" s="2">
-        <v>43897</v>
+      <c r="B157" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C157">
         <v>-24.1144</v>
@@ -2661,12 +3719,12 @@
         <v>-44.779049999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="B158" s="2">
-        <v>43905</v>
+      <c r="B158" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="C158">
         <v>-23.842949999999998</v>
@@ -2675,12 +3733,12 @@
         <v>-45.216650000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159" s="2">
-        <v>43909</v>
+      <c r="B159" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C159">
         <v>-23.730316666666667</v>
@@ -2689,12 +3747,12 @@
         <v>-45.246566666666666</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="B160" s="2">
-        <v>43952</v>
+      <c r="B160" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C160">
         <v>-23.912700000000001</v>
@@ -2703,12 +3761,12 @@
         <v>-45.472016666666669</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="2">
-        <v>43962</v>
+      <c r="B161" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C161">
         <v>-23.863700000000001</v>
@@ -2717,12 +3775,12 @@
         <v>-45.445133333333331</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="2">
-        <v>43963</v>
+      <c r="B162" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C162">
         <v>-23.873916666666666</v>
@@ -2731,12 +3789,12 @@
         <v>-45.450316666666666</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="B163" s="2">
-        <v>43983</v>
+      <c r="B163" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C163">
         <v>-23.991483333333335</v>
@@ -2745,12 +3803,12 @@
         <v>-45.445</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="2">
-        <v>43989</v>
+      <c r="B164" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C164">
         <v>-23.719316666666668</v>
@@ -2759,12 +3817,12 @@
         <v>-45.342383333333331</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
-      <c r="B165" s="2">
-        <v>43990</v>
+      <c r="B165" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C165">
         <v>-23.958566666666666</v>
@@ -2773,12 +3831,12 @@
         <v>-45.342866666666666</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="2">
-        <v>43992</v>
+      <c r="B166" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="C166">
         <v>-23.90465</v>
@@ -2787,12 +3845,12 @@
         <v>-45.555549999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
-      <c r="B167" s="2">
-        <v>43994</v>
+      <c r="B167" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C167">
         <v>-24.015083333333333</v>
@@ -2801,12 +3859,12 @@
         <v>-45.442300000000003</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="2">
-        <v>44002</v>
+      <c r="B168" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="C168">
         <v>-23.94145</v>
@@ -2815,12 +3873,12 @@
         <v>-45.22443333333333</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
-      <c r="B169" s="2">
-        <v>44004</v>
+      <c r="B169" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C169">
         <v>-23.874833333333335</v>
@@ -2829,12 +3887,12 @@
         <v>-45.449166666666663</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="2">
-        <v>44005</v>
+      <c r="B170" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="C170">
         <v>-23.934433333333335</v>
@@ -2843,12 +3901,12 @@
         <v>-45.447466666666664</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171" s="2">
-        <v>44006</v>
+      <c r="B171" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C171">
         <v>-23.850566666666666</v>
@@ -2857,12 +3915,12 @@
         <v>-45.418683333333334</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="2">
-        <v>44012</v>
+      <c r="B172" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C172">
         <v>-23.951116666666667</v>
@@ -2871,12 +3929,12 @@
         <v>-45.445633333333333</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173" s="2">
-        <v>44013</v>
+      <c r="B173" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="C173">
         <v>-23.847783333333332</v>
@@ -2885,12 +3943,12 @@
         <v>-45.417916666666663</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="2">
-        <v>44017</v>
+      <c r="B174" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="C174">
         <v>-24.023166666666668</v>
@@ -2899,12 +3957,12 @@
         <v>-45.222433333333335</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="2">
-        <v>44021</v>
+      <c r="B175" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="C175">
         <v>-23.821149999999999</v>
@@ -2913,12 +3971,12 @@
         <v>-45.386533333333333</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="2">
-        <v>44025</v>
+      <c r="B176" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C176">
         <v>-23.69735</v>
@@ -2927,12 +3985,12 @@
         <v>-45.262316666666663</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="B177" s="2">
-        <v>44029</v>
+      <c r="B177" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C177">
         <v>-23.780066666666666</v>
@@ -2941,12 +3999,12 @@
         <v>-45.203749999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="2">
-        <v>44031</v>
+      <c r="B178" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C178">
         <v>-23.820066666666666</v>
@@ -2955,12 +4013,12 @@
         <v>-45.219766666666665</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179" s="2">
-        <v>44032</v>
+      <c r="B179" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C179">
         <v>-23.938066666666668</v>
@@ -2969,12 +4027,12 @@
         <v>-45.493683333333337</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="2">
-        <v>44034</v>
+      <c r="B180" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C180">
         <v>-23.919750000000001</v>
@@ -2983,12 +4041,12 @@
         <v>-45.500450000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="B181" s="2">
-        <v>44036</v>
+      <c r="B181" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C181">
         <v>-23.956316666666666</v>
@@ -2997,12 +4055,12 @@
         <v>-45.404666666666664</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="2">
-        <v>44037</v>
+      <c r="B182" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="C182">
         <v>-23.991783333333334</v>
@@ -3011,12 +4069,12 @@
         <v>-45.409833333333331</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
-      <c r="B183" s="2">
-        <v>44050</v>
+      <c r="B183" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C183">
         <v>-23.934766666666668</v>
@@ -3025,12 +4083,12 @@
         <v>-45.446116666666668</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="2">
-        <v>44051</v>
+      <c r="B184" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C184">
         <v>-23.894349999999999</v>
@@ -3039,12 +4097,12 @@
         <v>-45.485399999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
-      <c r="B185" s="2">
-        <v>44052</v>
+      <c r="B185" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C185">
         <v>-23.899833333333333</v>
@@ -3053,12 +4111,12 @@
         <v>-45.473983333333337</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="2">
-        <v>44053</v>
+      <c r="B186" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C186">
         <v>-23.7349</v>
@@ -3067,12 +4125,12 @@
         <v>-45.25385</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
-      <c r="B187" s="2">
-        <v>44074</v>
+      <c r="B187" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C187">
         <v>-23.857666666666667</v>
@@ -3081,12 +4139,12 @@
         <v>-45.246650000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="2">
-        <v>44101</v>
+      <c r="B188" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C188">
         <v>-23.946916666666667</v>
@@ -3095,12 +4153,12 @@
         <v>-45.1952</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189" s="2">
-        <v>44104</v>
+      <c r="B189" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C189">
         <v>-23.881550000000001</v>
@@ -3109,12 +4167,12 @@
         <v>-45.464116666666669</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="2">
-        <v>44132</v>
+      <c r="B190" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C190">
         <v>-2.8435000000000001</v>
@@ -3123,12 +4181,12 @@
         <v>-45.255466666666663</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191" s="2">
-        <v>44133</v>
+      <c r="B191" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C191">
         <v>-2.2563333333333335</v>
@@ -3137,12 +4195,12 @@
         <v>-45.192783333333331</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="2">
-        <v>44148</v>
+      <c r="B192" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C192">
         <v>-2.8208333333333333</v>
@@ -3151,12 +4209,12 @@
         <v>-45.226050000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
-      <c r="B193" s="2">
-        <v>44162</v>
+      <c r="B193" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C193">
         <v>-2.9096666666666664</v>
@@ -3165,12 +4223,12 @@
         <v>-45.209083333333332</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="2">
-        <v>44178</v>
+      <c r="B194" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C194">
         <v>-2.7106666666666666</v>
@@ -3179,12 +4237,12 @@
         <v>-45.278483333333334</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
-      <c r="B195" s="2">
-        <v>44179</v>
+      <c r="B195" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C195">
         <v>-2.9729999999999999</v>
@@ -3193,12 +4251,12 @@
         <v>-45.259866666666667</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="2">
-        <v>44186</v>
+      <c r="B196" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C196">
         <v>-23.893000000000001</v>
@@ -3207,12 +4265,12 @@
         <v>-45.206983333333334</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
-      <c r="B197" s="2">
-        <v>44193</v>
+      <c r="B197" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C197">
         <v>-23.7971</v>
@@ -3221,12 +4279,12 @@
         <v>-45.110816666666665</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="2">
-        <v>44195</v>
+      <c r="B198" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C198">
         <v>-23.906433333333332</v>
@@ -3235,12 +4293,12 @@
         <v>-45.462566666666667</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="B199" s="2">
-        <v>44196</v>
+      <c r="B199" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C199">
         <v>-23.745816666666666</v>
@@ -3249,12 +4307,12 @@
         <v>-45.352866666666664</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200" s="2">
-        <v>44217</v>
+      <c r="B200" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C200">
         <v>-24.183333333333334</v>
@@ -3263,12 +4321,12 @@
         <v>-44.9</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="B201" s="2">
-        <v>44226</v>
+      <c r="B201" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C201">
         <v>-23.904666666666667</v>
@@ -3277,12 +4335,12 @@
         <v>-45.468350000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="2">
-        <v>44228</v>
+      <c r="B202" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C202">
         <v>-23.717600000000001</v>
@@ -3291,12 +4349,12 @@
         <v>-45.347549999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
-      <c r="B203" s="2">
-        <v>44262</v>
+      <c r="B203" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C203">
         <v>-24.8</v>
@@ -3305,12 +4363,12 @@
         <v>-44.883333333333333</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="2">
-        <v>44283</v>
+      <c r="B204" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="C204">
         <v>-23.98705</v>
@@ -3319,12 +4377,12 @@
         <v>-45.258583333333334</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
-      <c r="B205" s="2">
-        <v>44295</v>
+      <c r="B205" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C205">
         <v>-23.956366666666668</v>
@@ -3333,12 +4391,12 @@
         <v>-45.426066666666664</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="2">
-        <v>44296</v>
+      <c r="B206" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C206">
         <v>-23.973233333333333</v>
@@ -3347,12 +4405,12 @@
         <v>-45.255316666666666</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
-      <c r="B207" s="2">
-        <v>44309</v>
+      <c r="B207" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C207">
         <v>-23.935166666666667</v>
@@ -3361,12 +4419,12 @@
         <v>-45.455249999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="2">
-        <v>44311</v>
+      <c r="B208" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C208">
         <v>-23.897433333333332</v>
@@ -3375,12 +4433,12 @@
         <v>-45.493049999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
-      <c r="B209" s="2">
-        <v>44312</v>
+      <c r="B209" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C209">
         <v>-23.851033333333334</v>
@@ -3389,12 +4447,12 @@
         <v>-45.44383333333333</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="2">
-        <v>44318</v>
+      <c r="B210" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C210">
         <v>-23.772916666666667</v>
@@ -3403,12 +4461,12 @@
         <v>-45.01155</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
-      <c r="B211" s="2">
-        <v>44319</v>
+      <c r="B211" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C211">
         <v>-23.851383333333334</v>
@@ -3417,12 +4475,12 @@
         <v>-45.422033333333331</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212" s="2">
-        <v>44320</v>
+      <c r="B212" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C212">
         <v>-23.793600000000001</v>
@@ -3431,12 +4489,12 @@
         <v>-45.108750000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
-      <c r="B213" s="2">
-        <v>44327</v>
+      <c r="B213" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C213">
         <v>-23.924800000000001</v>
@@ -3445,12 +4503,12 @@
         <v>-45.477716666666666</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="2">
-        <v>44328</v>
+      <c r="B214" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C214">
         <v>-23.744700000000002</v>
@@ -3459,12 +4517,12 @@
         <v>-45.3508</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215" s="2">
-        <v>44331</v>
+      <c r="B215" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="C215">
         <v>-23.802499999999998</v>
@@ -3473,12 +4531,12 @@
         <v>-45.369883333333334</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="2">
-        <v>44333</v>
+      <c r="B216" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C216">
         <v>-23.886283333333335</v>
@@ -3487,12 +4545,12 @@
         <v>-45.46543333333333</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217" s="2">
-        <v>44334</v>
+      <c r="B217" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C217">
         <v>-23.863233333333334</v>
@@ -3501,12 +4559,12 @@
         <v>-45.44233333333333</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218" s="2">
-        <v>44336</v>
+      <c r="B218" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C218">
         <v>-23.938766666666666</v>
@@ -3515,12 +4573,12 @@
         <v>-45.476083333333335</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
-      <c r="B219" s="2">
-        <v>44338</v>
+      <c r="B219" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="C219">
         <v>-23.815799999999999</v>
@@ -3529,12 +4587,12 @@
         <v>-45.21221666666667</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="2">
-        <v>44339</v>
+      <c r="B220" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="C220">
         <v>-23.861316666666667</v>
@@ -3543,12 +4601,12 @@
         <v>-45.462816666666669</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221" s="2">
-        <v>44342</v>
+      <c r="B221" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="C221">
         <v>-23.941549999999999</v>
@@ -3557,12 +4615,12 @@
         <v>-45.438283333333331</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="2">
-        <v>44343</v>
+      <c r="B222" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C222">
         <v>-23.928533333333334</v>
@@ -3571,12 +4629,12 @@
         <v>-45.452449999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
-      <c r="B223" s="2">
-        <v>44344</v>
+      <c r="B223" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="C223">
         <v>-23.974116666666667</v>
@@ -3585,12 +4643,12 @@
         <v>-45.274050000000003</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="2">
-        <v>44346</v>
+      <c r="B224" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C224">
         <v>-23.805316666666666</v>
@@ -3599,12 +4657,12 @@
         <v>-45.3872</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
-      <c r="B225" s="2">
-        <v>44349</v>
+      <c r="B225" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="C225">
         <v>-23.941683333333334</v>
@@ -3613,12 +4671,12 @@
         <v>-45.432733333333331</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="2">
-        <v>44350</v>
+      <c r="B226" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C226">
         <v>-23.894683333333333</v>
@@ -3627,12 +4685,12 @@
         <v>-45.462283333333332</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
-      <c r="B227" s="2">
-        <v>44351</v>
+      <c r="B227" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C227">
         <v>-23.045233333333332</v>
@@ -3641,12 +4699,12 @@
         <v>-45.4422</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="2">
-        <v>44352</v>
+      <c r="B228" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="C228">
         <v>-23.839033333333333</v>
@@ -3655,12 +4713,12 @@
         <v>-45.409350000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
-      <c r="B229" s="2">
-        <v>44353</v>
+      <c r="B229" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="C229">
         <v>-23.84215</v>
@@ -3669,12 +4727,12 @@
         <v>-45.436100000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
-      <c r="B230" s="2">
-        <v>44355</v>
+      <c r="B230" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C230">
         <v>-23.874233333333333</v>
@@ -3683,12 +4741,12 @@
         <v>-45.448250000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
-      <c r="B231" s="2">
-        <v>44356</v>
+      <c r="B231" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="C231">
         <v>-23.80565</v>
@@ -3697,12 +4755,12 @@
         <v>-45.374549999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="2">
-        <v>44357</v>
+      <c r="B232" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C232">
         <v>-23.898166666666668</v>
@@ -3711,12 +4769,12 @@
         <v>-45.461366666666663</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233" s="2">
-        <v>44359</v>
+      <c r="B233" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C233">
         <v>-23.893383333333333</v>
@@ -3725,12 +4783,12 @@
         <v>-45.464399999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="2">
-        <v>44360</v>
+      <c r="B234" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="C234">
         <v>-23.8293</v>
@@ -3739,12 +4797,12 @@
         <v>-45.397350000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235" s="2">
-        <v>44362</v>
+      <c r="B235" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C235">
         <v>-23.962283333333332</v>
@@ -3753,12 +4811,12 @@
         <v>-45.272833333333331</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="2">
-        <v>44368</v>
+      <c r="B236" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="C236">
         <v>-23.867366666666666</v>
@@ -3767,12 +4825,12 @@
         <v>-45.434483333333333</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="2">
-        <v>44369</v>
+      <c r="B237" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="C237">
         <v>-23.903083333333335</v>
@@ -3781,12 +4839,12 @@
         <v>-45.468266666666665</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="2">
-        <v>44371</v>
+      <c r="B238" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="C238">
         <v>-23.937183333333333</v>
@@ -3795,12 +4853,12 @@
         <v>-45.441266666666664</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="2">
-        <v>44372</v>
+      <c r="B239" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C239">
         <v>-23.956933333333332</v>
@@ -3809,12 +4867,12 @@
         <v>-45.464750000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="2">
-        <v>44373</v>
+      <c r="B240" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="C240">
         <v>-23.900983333333333</v>
@@ -3823,12 +4881,12 @@
         <v>-45.471683333333331</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="2">
-        <v>44374</v>
+      <c r="B241" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="C241">
         <v>-23.848633333333332</v>
@@ -3837,12 +4895,12 @@
         <v>-45.4527</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="2">
-        <v>44379</v>
+      <c r="B242" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="C242">
         <v>-23.940066666666667</v>
@@ -3851,12 +4909,12 @@
         <v>-45.442416666666666</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243" s="2">
-        <v>44380</v>
+      <c r="B243" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="C243">
         <v>-23.956733333333332</v>
@@ -3865,12 +4923,12 @@
         <v>-45.416649999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="2">
-        <v>44381</v>
+      <c r="B244" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C244">
         <v>-23.865816666666667</v>
@@ -3879,12 +4937,12 @@
         <v>-45.436599999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B245" s="2">
-        <v>44382</v>
+      <c r="B245" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="C245">
         <v>-23.939816666666665</v>
@@ -3893,12 +4951,12 @@
         <v>-45.441966666666666</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="2">
-        <v>44383</v>
+      <c r="B246" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="C246">
         <v>-23.912700000000001</v>
@@ -3907,12 +4965,12 @@
         <v>-45.465400000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247" s="2">
-        <v>44384</v>
+      <c r="B247" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="C247">
         <v>-23.909233333333333</v>
@@ -3921,12 +4979,12 @@
         <v>-45.465116666666667</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="2">
-        <v>44386</v>
+      <c r="B248" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="C248">
         <v>-23.732949999999999</v>
@@ -3935,12 +4993,12 @@
         <v>-45.259966666666664</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249" s="2">
-        <v>44387</v>
+      <c r="B249" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C249">
         <v>-23.808216666666667</v>
@@ -3949,12 +5007,12 @@
         <v>-45.377116666666666</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="2">
-        <v>44388</v>
+      <c r="B250" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="C250">
         <v>-23.808216666666667</v>
@@ -3963,12 +5021,12 @@
         <v>-45.377116666666666</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
-      <c r="B251" s="2">
-        <v>44389</v>
+      <c r="B251" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C251">
         <v>-23.909233333333333</v>
@@ -3977,12 +5035,12 @@
         <v>-45.465116666666667</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="2">
-        <v>44390</v>
+      <c r="B252" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C252">
         <v>-23.903083333333335</v>
@@ -3991,12 +5049,12 @@
         <v>-45.468266666666665</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
-      <c r="B253" s="2">
-        <v>44391</v>
+      <c r="B253" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="C253">
         <v>-23.909716666666668</v>
@@ -4005,12 +5063,12 @@
         <v>-45.461883333333333</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="2">
-        <v>44392</v>
+      <c r="B254" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="C254">
         <v>-23.860183333333332</v>
@@ -4019,12 +5077,12 @@
         <v>-45.798233333333336</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
-      <c r="B255" s="2">
-        <v>44399</v>
+      <c r="B255" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="C255">
         <v>-23.95065</v>
@@ -4033,12 +5091,12 @@
         <v>-45.36996666666667</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="2">
-        <v>44401</v>
+      <c r="B256" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C256">
         <v>-23.857933333333332</v>
@@ -4047,12 +5105,12 @@
         <v>-45.719566666666665</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
-      <c r="B257" s="2">
-        <v>44404</v>
+      <c r="B257" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="C257">
         <v>-23.88045</v>
@@ -4061,12 +5119,12 @@
         <v>-45.248783333333336</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="2">
-        <v>44409</v>
+      <c r="B258" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="C258">
         <v>-23.788416666666667</v>
@@ -4075,12 +5133,12 @@
         <v>-45.36613333333333</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
-      <c r="B259" s="2">
-        <v>44410</v>
+      <c r="B259" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="C259">
         <v>-23.914349999999999</v>
@@ -4089,12 +5147,12 @@
         <v>-45.464066666666668</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="2">
-        <v>44415</v>
+      <c r="B260" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="C260">
         <v>-23.903083333333335</v>
@@ -4103,12 +5161,12 @@
         <v>-45.468266666666665</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
-      <c r="B261" s="2">
-        <v>44418</v>
+      <c r="B261" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C261">
         <v>-23.931799999999999</v>
@@ -4117,12 +5175,12 @@
         <v>-45.299833333333332</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="2">
-        <v>44424</v>
+      <c r="B262" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="C262">
         <v>-23.946566666666666</v>
@@ -4131,12 +5189,12 @@
         <v>-45.428199999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263" s="2">
-        <v>44430</v>
+      <c r="B263" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="C263">
         <v>-23.893166666666666</v>
@@ -4145,12 +5203,12 @@
         <v>-45.466683333333336</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="2">
-        <v>44438</v>
+      <c r="B264" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C264">
         <v>-23.873016666666668</v>
@@ -4159,12 +5217,12 @@
         <v>-45.4482</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
-      <c r="B265" s="2">
-        <v>44453</v>
+      <c r="B265" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="C265">
         <v>-23.763349999999999</v>
@@ -4173,12 +5231,12 @@
         <v>-45.196016666666665</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="2">
-        <v>44460</v>
+      <c r="B266" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="C266">
         <v>-23.850866666666668</v>
@@ -4187,12 +5245,12 @@
         <v>-45.443883333333332</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
-      <c r="B267" s="2">
-        <v>44468</v>
+      <c r="B267" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="C267">
         <v>-23.838483333333333</v>
@@ -4201,12 +5259,12 @@
         <v>-45.420766666666665</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="2">
-        <v>44471</v>
+      <c r="B268" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="C268">
         <v>-23.948016666666668</v>
@@ -4215,12 +5273,12 @@
         <v>-45.44318333333333</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269" s="2">
-        <v>44506</v>
+      <c r="B269" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="C269">
         <v>-23.781383333333334</v>
@@ -4229,12 +5287,12 @@
         <v>-45.229266666666668</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="2">
-        <v>44507</v>
+      <c r="B270" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="C270">
         <v>-23.942916666666665</v>
@@ -4243,12 +5301,12 @@
         <v>-45.433766666666664</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="2">
-        <v>44520</v>
+      <c r="B271" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="C271">
         <v>-2.9056666666666668</v>
@@ -4257,12 +5315,12 @@
         <v>-45.467399999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="2">
-        <v>44521</v>
+      <c r="B272" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="C272">
         <v>-2.5666666666666664</v>
@@ -4271,12 +5329,12 @@
         <v>-44.559333333333335</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="2">
-        <v>44525</v>
+      <c r="B273" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="C273">
         <v>-2.8411666666666666</v>
@@ -4285,12 +5343,12 @@
         <v>-45.431183333333337</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274" s="2">
-        <v>44528</v>
+      <c r="B274" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="C274">
         <v>-2.9674999999999998</v>
@@ -4299,12 +5357,12 @@
         <v>-45.239316666666667</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="2">
-        <v>44541</v>
+      <c r="B275" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="C275">
         <v>-2.8333333333333335</v>
@@ -4313,12 +5371,12 @@
         <v>-45.222583333333333</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="2">
-        <v>44544</v>
+      <c r="B276" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="C276">
         <v>-2.0093333333333332</v>
@@ -4327,12 +5385,12 @@
         <v>-45.600349999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="2">
-        <v>44572</v>
+      <c r="B277" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="C277">
         <v>-23.789950000000001</v>
@@ -4341,12 +5399,12 @@
         <v>-45.216183333333333</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
-      <c r="B278" s="2">
-        <v>44576</v>
+      <c r="B278" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="C278">
         <v>-23.841950000000001</v>
@@ -4355,12 +5413,12 @@
         <v>-44.840949999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279" s="2">
-        <v>44608</v>
+      <c r="B279" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="C279">
         <v>-23.767499999999998</v>
@@ -4369,12 +5427,12 @@
         <v>-45.360666666666667</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
-      <c r="B280" s="2">
-        <v>44655</v>
+      <c r="B280" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="C280">
         <v>-24.2971</v>
@@ -4383,12 +5441,12 @@
         <v>-46.785316666666667</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
-      <c r="B281" s="2">
-        <v>44672</v>
+      <c r="B281" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="C281">
         <v>-23.965916666666665</v>
@@ -4397,12 +5455,12 @@
         <v>-45.376350000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
-      <c r="B282" s="2">
-        <v>44691</v>
+      <c r="B282" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="C282">
         <v>-23.83925</v>
@@ -4411,12 +5469,12 @@
         <v>-45.580883333333333</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
-      <c r="B283" s="2">
-        <v>44692</v>
+      <c r="B283" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="C283">
         <v>-23.960433333333334</v>
@@ -4425,12 +5483,12 @@
         <v>-45.403383333333331</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
-      <c r="B284" s="2">
-        <v>44707</v>
+      <c r="B284" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="C284">
         <v>-23.796566666666667</v>
@@ -4439,12 +5497,12 @@
         <v>-45.374783333333333</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
-      <c r="B285" s="2">
-        <v>44708</v>
+      <c r="B285" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="C285">
         <v>-23.964733333333335</v>
@@ -4453,12 +5511,12 @@
         <v>-45.408783333333332</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
-      <c r="B286" s="2">
-        <v>44709</v>
+      <c r="B286" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="C286">
         <v>-23.749083333333335</v>
@@ -4467,12 +5525,12 @@
         <v>-45.028733333333335</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
-      <c r="B287" s="2">
-        <v>44710</v>
+      <c r="B287" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="C287">
         <v>-23.950866666666666</v>
@@ -4481,12 +5539,12 @@
         <v>-45.219466666666669</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
-      <c r="B288" s="2">
-        <v>44717</v>
+      <c r="B288" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="C288">
         <v>-23.814916666666665</v>
@@ -4495,12 +5553,12 @@
         <v>-45.715249999999997</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
-      <c r="B289" s="2">
-        <v>44718</v>
+      <c r="B289" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="C289">
         <v>-23.855666666666668</v>
@@ -4509,12 +5567,12 @@
         <v>-45.49315</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
-      <c r="B290" s="2">
-        <v>44719</v>
+      <c r="B290" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="C290">
         <v>-23.864450000000001</v>
@@ -4523,12 +5581,12 @@
         <v>-45.497083333333336</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291" s="2">
-        <v>44720</v>
+      <c r="B291" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="C291">
         <v>-23.868600000000001</v>
@@ -4537,12 +5595,12 @@
         <v>-45.442250000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292" s="2">
-        <v>44721</v>
+      <c r="B292" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="C292">
         <v>-23.893983333333335</v>
@@ -4551,12 +5609,12 @@
         <v>-45.490183333333334</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
-      <c r="B293" s="2">
-        <v>44722</v>
+      <c r="B293" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="C293">
         <v>-23.933283333333332</v>
@@ -4565,12 +5623,12 @@
         <v>-45.485183333333332</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
-      <c r="B294" s="2">
-        <v>44726</v>
+      <c r="B294" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="C294">
         <v>-23.843016666666667</v>
@@ -4579,12 +5637,12 @@
         <v>-45.418950000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
-      <c r="B295" s="2">
-        <v>44728</v>
+      <c r="B295" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="C295">
         <v>-23.980983333333334</v>
@@ -4593,12 +5651,12 @@
         <v>-45.270816666666668</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
-      <c r="B296" s="2">
-        <v>44729</v>
+      <c r="B296" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="C296">
         <v>-23.969116666666668</v>
@@ -4607,12 +5665,12 @@
         <v>-45.235333333333337</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
-      <c r="B297" s="2">
-        <v>44734</v>
+      <c r="B297" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="C297">
         <v>-23.992566666666665</v>
@@ -4621,12 +5679,12 @@
         <v>-45.460900000000002</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
-      <c r="B298" s="2">
-        <v>44735</v>
+      <c r="B298" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="C298">
         <v>-23.883516666666665</v>
@@ -4635,12 +5693,12 @@
         <v>-45.460333333333331</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
-      <c r="B299" s="2">
-        <v>44736</v>
+      <c r="B299" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="C299">
         <v>-23.850166666666667</v>
@@ -4649,12 +5707,12 @@
         <v>-45.430916666666668</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
-      <c r="B300" s="2">
-        <v>44740</v>
+      <c r="B300" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="C300">
         <v>-23.80395</v>
@@ -4663,12 +5721,12 @@
         <v>-45.369199999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
-      <c r="B301" s="2">
-        <v>44741</v>
+      <c r="B301" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="C301">
         <v>-23.943666666666665</v>
@@ -4677,12 +5735,12 @@
         <v>-45.427250000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
-      <c r="B302" s="2">
-        <v>44743</v>
+      <c r="B302" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="C302">
         <v>-23.810400000000001</v>
@@ -4691,12 +5749,12 @@
         <v>-45.383516666666665</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
-      <c r="B303" s="2">
-        <v>44744</v>
+      <c r="B303" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="C303">
         <v>-23.928650000000001</v>
@@ -4705,12 +5763,12 @@
         <v>-45.457650000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
-      <c r="B304" s="2">
-        <v>44745</v>
+      <c r="B304" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="C304">
         <v>-23.929066666666667</v>
@@ -4719,12 +5777,12 @@
         <v>-45.475450000000002</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
-      <c r="B305" s="2">
-        <v>44746</v>
+      <c r="B305" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="C305">
         <v>-23.953266666666668</v>
@@ -4733,12 +5791,12 @@
         <v>-45.498849999999997</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
-      <c r="B306" s="2">
-        <v>44747</v>
+      <c r="B306" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="C306">
         <v>-23.981716666666667</v>
@@ -4747,12 +5805,12 @@
         <v>-45.366733333333336</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
-      <c r="B307" s="2">
-        <v>44748</v>
+      <c r="B307" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="C307">
         <v>-23.936316666666666</v>
@@ -4761,12 +5819,12 @@
         <v>-45.48748333333333</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
-      <c r="B308" s="2">
-        <v>44749</v>
+      <c r="B308" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C308">
         <v>-23.839449999999999</v>
@@ -4775,12 +5833,12 @@
         <v>-45.422849999999997</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
-      <c r="B309" s="2">
-        <v>44751</v>
+      <c r="B309" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C309">
         <v>-23.987583333333333</v>
@@ -4789,12 +5847,12 @@
         <v>-45.366783333333331</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
-      <c r="B310" s="2">
-        <v>44752</v>
+      <c r="B310" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C310">
         <v>-23.952816666666667</v>
@@ -4803,12 +5861,12 @@
         <v>-45.413400000000003</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
-      <c r="B311" s="2">
-        <v>44753</v>
+      <c r="B311" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C311">
         <v>-23.88815</v>
@@ -4817,12 +5875,12 @@
         <v>-45.513233333333332</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
-      <c r="B312" s="2">
-        <v>44754</v>
+      <c r="B312" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C312">
         <v>-23.884733333333333</v>
@@ -4831,12 +5889,12 @@
         <v>-45.461366666666663</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
-      <c r="B313" s="2">
-        <v>44757</v>
+      <c r="B313" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C313">
         <v>-23.966333333333335</v>
@@ -4845,12 +5903,12 @@
         <v>-45.397916666666667</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
-      <c r="B314" s="2">
-        <v>44758</v>
+      <c r="B314" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C314">
         <v>-23.884599999999999</v>
@@ -4859,12 +5917,12 @@
         <v>-45.466533333333331</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
-      <c r="B315" s="2">
-        <v>44759</v>
+      <c r="B315" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C315">
         <v>-23.915983333333333</v>
@@ -4873,12 +5931,12 @@
         <v>-45.463666666666668</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
-      <c r="B316" s="2">
-        <v>44761</v>
+      <c r="B316" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C316">
         <v>-23.974083333333333</v>
@@ -4887,12 +5945,12 @@
         <v>-45.271133333333331</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
-      <c r="B317" s="2">
-        <v>44762</v>
+      <c r="B317" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C317">
         <v>-23.9435</v>
@@ -4901,12 +5959,12 @@
         <v>-45.362333333333332</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
-      <c r="B318" s="2">
-        <v>44763</v>
+      <c r="B318" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C318">
         <v>-23.929600000000001</v>
@@ -4915,12 +5973,12 @@
         <v>-45.460116666666664</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
-      <c r="B319" s="2">
-        <v>44764</v>
+      <c r="B319" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C319">
         <v>-23.931066666666666</v>
@@ -4929,12 +5987,12 @@
         <v>-45.448333333333331</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
-      <c r="B320" s="2">
-        <v>44765</v>
+      <c r="B320" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C320">
         <v>-23.938500000000001</v>
@@ -4943,12 +6001,12 @@
         <v>-45.455066666666667</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
-      <c r="B321" s="2">
-        <v>44766</v>
+      <c r="B321" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C321">
         <v>-23.885983333333332</v>
@@ -4957,12 +6015,12 @@
         <v>-45.468033333333331</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
-      <c r="B322" s="2">
-        <v>44767</v>
+      <c r="B322" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C322">
         <v>-23.885083333333334</v>
@@ -4971,12 +6029,12 @@
         <v>-45.464133333333336</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
-      <c r="B323" s="2">
-        <v>44768</v>
+      <c r="B323" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C323">
         <v>-23.967383333333334</v>
@@ -4985,12 +6043,12 @@
         <v>-45.452399999999997</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
-      <c r="B324" s="2">
-        <v>44770</v>
+      <c r="B324" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C324">
         <v>-23.987166666666667</v>
@@ -4999,12 +6057,12 @@
         <v>-45.422483333333332</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
-      <c r="B325" s="2">
-        <v>44773</v>
+      <c r="B325" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C325">
         <v>-23.717266666666667</v>
@@ -5013,12 +6071,12 @@
         <v>-45.3521</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
-      <c r="B326" s="2">
-        <v>44777</v>
+      <c r="B326" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C326">
         <v>-23.904</v>
@@ -5027,12 +6085,12 @@
         <v>-45.462116666666667</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
-      <c r="B327" s="2">
-        <v>44778</v>
+      <c r="B327" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="C327">
         <v>-23.903449999999999</v>
@@ -5041,12 +6099,12 @@
         <v>-45.469499999999996</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
-      <c r="B328" s="2">
-        <v>44779</v>
+      <c r="B328" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="C328">
         <v>-23.918616666666665</v>
@@ -5055,12 +6113,12 @@
         <v>-45.476999999999997</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
-      <c r="B329" s="2">
-        <v>44781</v>
+      <c r="B329" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C329">
         <v>-23.965283333333332</v>
@@ -5069,12 +6127,12 @@
         <v>-45.509799999999998</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
-      <c r="B330" s="2">
-        <v>44788</v>
+      <c r="B330" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="C330">
         <v>-23.750933333333332</v>
@@ -5083,12 +6141,12 @@
         <v>-45.247533333333337</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
-      <c r="B331" s="2">
-        <v>44800</v>
+      <c r="B331" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="C331">
         <v>-23.736983333333335</v>
@@ -5097,12 +6155,12 @@
         <v>-45.26486666666667</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
-      <c r="B332" s="2">
-        <v>44813</v>
+      <c r="B332" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="C332">
         <v>-23.824083333333334</v>
@@ -5111,12 +6169,12 @@
         <v>-45.395466666666664</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
-      <c r="B333" s="2">
-        <v>44822</v>
+      <c r="B333" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="C333">
         <v>-23.909016666666666</v>
@@ -5125,12 +6183,12 @@
         <v>-45.464733333333335</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>333</v>
       </c>
-      <c r="B334" s="2">
-        <v>44842</v>
+      <c r="B334" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C334">
         <v>-23.806950000000001</v>
@@ -5139,12 +6197,12 @@
         <v>-45.376283333333333</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>334</v>
       </c>
-      <c r="B335" s="2">
-        <v>44843</v>
+      <c r="B335" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="C335">
         <v>-23.935283333333334</v>
@@ -5153,12 +6211,12 @@
         <v>-45.47913333333333</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
-      <c r="B336" s="2">
-        <v>44846</v>
+      <c r="B336" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="C336">
         <v>-23.776266666666668</v>
@@ -5167,12 +6225,12 @@
         <v>-45.169350000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
-      <c r="B337" s="2">
-        <v>44858</v>
+      <c r="B337" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="C337">
         <v>-24.833333333333332</v>
@@ -5181,12 +6239,12 @@
         <v>-44.833333333333336</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
-      <c r="B338" s="2">
-        <v>44875</v>
+      <c r="B338" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="C338">
         <v>-23.717716666666668</v>
@@ -5195,12 +6253,12 @@
         <v>-45.270316666666666</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
-      <c r="B339" s="2">
-        <v>44882</v>
+      <c r="B339" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="C339">
         <v>-23.943116666666668</v>
@@ -5209,12 +6267,12 @@
         <v>-45.449966666666668</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>339</v>
       </c>
-      <c r="B340" s="2">
-        <v>44923</v>
+      <c r="B340" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="C340">
         <v>-23.794149999999998</v>
@@ -5223,12 +6281,12 @@
         <v>-45.22893333333333</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
-      <c r="B341" s="2">
-        <v>44930</v>
+      <c r="B341" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="C341">
         <v>-23.718716666666666</v>
@@ -5237,12 +6295,12 @@
         <v>-45.307283333333331</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
-      <c r="B342" s="2">
-        <v>44937</v>
+      <c r="B342" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="C342">
         <v>-23.718399999999999</v>
@@ -5251,12 +6309,12 @@
         <v>-45.290966666666669</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>342</v>
       </c>
-      <c r="B343" s="2">
-        <v>44938</v>
+      <c r="B343" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="C343">
         <v>-23.868516666666668</v>
@@ -5265,12 +6323,12 @@
         <v>-45.79163333333333</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
-      <c r="B344" s="2">
-        <v>44943</v>
+      <c r="B344" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="C344">
         <v>-23.729983333333333</v>
@@ -5279,12 +6337,12 @@
         <v>-45.34726666666667</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
-      <c r="B345" s="2">
-        <v>44946</v>
+      <c r="B345" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="C345">
         <v>-23.909949999999998</v>
@@ -5293,12 +6351,12 @@
         <v>-45.468899999999998</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
-      <c r="B346" s="2">
-        <v>44948</v>
+      <c r="B346" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="C346">
         <v>-23.645783333333334</v>
@@ -5307,12 +6365,12 @@
         <v>-45.241300000000003</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>346</v>
       </c>
-      <c r="B347" s="2">
-        <v>44952</v>
+      <c r="B347" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="C347">
         <v>-23.787266666666667</v>
@@ -5321,12 +6379,12 @@
         <v>-45.184199999999997</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
-      <c r="B348" s="2">
-        <v>44968</v>
+      <c r="B348" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="C348">
         <v>-23.798850000000002</v>
@@ -5335,12 +6393,12 @@
         <v>-45.219250000000002</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
-      <c r="B349" s="2">
-        <v>45028</v>
+      <c r="B349" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="C349">
         <v>-23.733650000000001</v>
@@ -5349,12 +6407,12 @@
         <v>-45.27558333333333</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
-      <c r="B350" s="2">
-        <v>45030</v>
+      <c r="B350" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="C350">
         <v>-23.758016666666666</v>
@@ -5363,12 +6421,12 @@
         <v>-45.230566666666668</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
-      <c r="B351" s="2">
-        <v>45048</v>
+      <c r="B351" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="C351">
         <v>-23.936599999999999</v>
@@ -5377,12 +6435,12 @@
         <v>-45.40826666666667</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
-      <c r="B352" s="2">
-        <v>45050</v>
+      <c r="B352" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="C352">
         <v>-23.978016666666665</v>
@@ -5391,12 +6449,12 @@
         <v>-45.262416666666667</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
-      <c r="B353" s="2">
-        <v>45065</v>
+      <c r="B353" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="C353">
         <v>-23.920283333333334</v>
@@ -5408,5 +6466,6 @@
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{44433F94-6954-4554-AA38-C763BDC78604}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>